--- a/data/classic_models.xlsx
+++ b/data/classic_models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonia/Documents/IRONHACK/MAR22/labs_vacios/5.3-lab-tableau/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasabatel/Desktop/IRONHACK/5.4-lab-powerbi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5636D2C9-A273-4548-A62E-84DDA45B0EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BEA2CD-0394-7247-BAEE-335D772CE169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="product_lines" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,20 @@
     <sheet name="customers" sheetId="7" r:id="rId7"/>
     <sheet name="employees" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -5055,7 +5068,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5078,21 +5091,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5103,6 +5175,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E84E1022-1995-6446-8D8B-512F3AC3A603}" name="Tabla1" displayName="Tabla1" ref="A1:M123" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:M123" xr:uid="{E84E1022-1995-6446-8D8B-512F3AC3A603}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{7BE58E1E-AC7C-C347-9F3B-A3E5A16DA4F2}" name="customerNumber"/>
+    <tableColumn id="2" xr3:uid="{489FF656-2E1A-0B4F-9EF7-9222CD1646FC}" name="customerName"/>
+    <tableColumn id="3" xr3:uid="{5634E7F8-A8B0-0E47-BC86-1052AB39A782}" name="contactLastName"/>
+    <tableColumn id="4" xr3:uid="{40888D00-ACE3-F748-B124-642926E41AFE}" name="contactFirstName"/>
+    <tableColumn id="5" xr3:uid="{DD58FB50-C736-3E43-9159-DA49E13E8355}" name="phone"/>
+    <tableColumn id="6" xr3:uid="{6ADF5968-E2D2-2D4C-9B3B-435B290E48C6}" name="addressLine1"/>
+    <tableColumn id="7" xr3:uid="{6D155E00-98C8-244A-9D9E-8F32E813FA46}" name="addressLine2"/>
+    <tableColumn id="8" xr3:uid="{9C49DE5D-1456-D145-B696-4D30943B34BA}" name="city"/>
+    <tableColumn id="9" xr3:uid="{64BC6481-5231-3341-B6FE-2A5D029288F7}" name="state"/>
+    <tableColumn id="10" xr3:uid="{15D9CED9-DB39-3B4E-8883-B85939421FDD}" name="postalCode"/>
+    <tableColumn id="11" xr3:uid="{0CE37121-0160-734E-87D8-C041C3067AAB}" name="country"/>
+    <tableColumn id="12" xr3:uid="{5B288E2C-34EA-674A-B3A4-3F05685B1071}" name="salesRepEmployeeNumber"/>
+    <tableColumn id="13" xr3:uid="{12E41A89-1753-2E4D-AAAE-E09250B3F0B4}" name="creditLimit"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -70521,58 +70615,62 @@
   <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection sqref="A1:M123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
     <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" customWidth="1"/>
     <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="24.1640625" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>756</v>
       </c>
     </row>
@@ -74974,6 +75072,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/data/classic_models.xlsx
+++ b/data/classic_models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonia/Documents/IRONHACK/MAR22/labs_vacios/5.3-lab-tableau/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimy/Desktop/IRONHACK/5.4-lab-powerbi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5636D2C9-A273-4548-A62E-84DDA45B0EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E52EB0E-1FDC-1D4E-B97C-006A775C2C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="product_lines" sheetId="1" r:id="rId1"/>
@@ -5055,7 +5055,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5078,21 +5078,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5103,6 +5162,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BCC830D-3C08-B04E-9A52-CC3C9CFDDDDE}" name="Tabla1" displayName="Tabla1" ref="A1:M123" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:M123" xr:uid="{7BCC830D-3C08-B04E-9A52-CC3C9CFDDDDE}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{1490A465-9A77-E241-83D5-FA2F5199D03F}" name="customerNumber"/>
+    <tableColumn id="2" xr3:uid="{6FC480B9-BFE4-C649-929E-2387892FD8C4}" name="customerName"/>
+    <tableColumn id="3" xr3:uid="{CDE4C91B-B638-EB46-98FE-B5295D4C3D74}" name="contactLastName"/>
+    <tableColumn id="4" xr3:uid="{FF9CF44A-8745-2144-87A9-E8FD6B978B48}" name="contactFirstName"/>
+    <tableColumn id="5" xr3:uid="{04D01A83-77F5-1748-8462-5A50A2FF3D1B}" name="phone"/>
+    <tableColumn id="6" xr3:uid="{9892B627-3D04-DC42-87FE-98073EADD1B5}" name="addressLine1"/>
+    <tableColumn id="7" xr3:uid="{03781698-DD83-1A40-B1C5-0E6CC3570B47}" name="addressLine2"/>
+    <tableColumn id="8" xr3:uid="{326FA307-9ADE-4844-AE15-738575B64632}" name="city"/>
+    <tableColumn id="9" xr3:uid="{B1F984CB-C857-F54B-92FB-F400242ADCA0}" name="state"/>
+    <tableColumn id="10" xr3:uid="{326CD805-2FCD-9E46-859C-C9F6BA761C29}" name="postalCode"/>
+    <tableColumn id="11" xr3:uid="{B7D794A5-1BCE-1F41-B274-76B53E542DCA}" name="country"/>
+    <tableColumn id="12" xr3:uid="{3D5B459D-1815-3140-869C-CC5B7E784FE8}" name="salesRepEmployeeNumber"/>
+    <tableColumn id="13" xr3:uid="{666F765B-B7A3-AD41-97BD-1A0B1C73D52B}" name="creditLimit"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -70521,58 +70602,62 @@
   <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
     <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" customWidth="1"/>
     <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="24.1640625" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>756</v>
       </c>
     </row>
@@ -74974,6 +75059,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
